--- a/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_train.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C0A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D9A0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DA10&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D930&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D850&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D7E0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D700&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D620&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D4D0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL486100</t>
+          <t>CHEMBL178510</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC4N=NN=N4)cc3)nc21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC4N=NN=N4)cc3)nc21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>503.94</v>
+        <v>507.39</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>100.87</v>
+        <v>109.25</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D460&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL178510</t>
+          <t>CHEMBL540206</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC4N=NN=N4)cc3)nc21</t>
+          <t>CCN(CC)CCOc1ccc(Nc2ncc3cc(-c4c(Cl)cc(O)cc4Cl)c(=O)n(C)c3n2)cc1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC4N=NN=N4)cc3)nc21</t>
+          <t>CCN(CC)CCOc1ccc(Nc2ncc3cc(-c4c(Cl)cc(O)cc4Cl)c(=O)n(C)c3n2)cc1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>507.39</v>
+        <v>528.4400000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>109.25</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D3F0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL540206</t>
+          <t>CHEMBL181285</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CCN(CC)CCOc1ccc(Nc2ncc3cc(-c4c(Cl)cc(O)cc4Cl)c(=O)n(C)c3n2)cc1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CCN(CC)CCOc1ccc(Nc2ncc3cc(-c4c(Cl)cc(O)cc4Cl)c(=O)n(C)c3n2)cc1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>528.4400000000001</v>
+        <v>499.35</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>92.51000000000001</v>
+        <v>106.34</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D230&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL181285</t>
+          <t>CHEMBL519238</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>499.35</v>
+        <v>436.47</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>106.34</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D150&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL519238</t>
+          <t>CHEMBL508294</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>436.47</v>
+        <v>491.33</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -1400,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C10E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D000&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL508294</t>
+          <t>CHEMBL257857</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
+          <t>Cn1c2cc(S(=O)(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
+          <t>Cn1c2cc(S(=O)(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>491.33</v>
+        <v>552.05</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>89.15000000000001</v>
+        <v>108.71</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CE40&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL257857</t>
+          <t>CHEMBL483801</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>CN(C)CCNC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>CN(C)CCNC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>552.05</v>
+        <v>394.43</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>108.71</v>
+        <v>103.67</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C0C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D8C0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL483801</t>
+          <t>CHEMBL488571</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CN(C)CCNC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CN(C)CCNC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>394.43</v>
+        <v>374.36</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>103.67</v>
+        <v>106.22</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C0D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C820&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL488571</t>
+          <t>CHEMBL520049</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>374.36</v>
+        <v>407.43</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -1672,16 +1672,16 @@
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>106.22</v>
+        <v>100.87</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C0EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C890&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL520049</t>
+          <t>CHEMBL471157</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,44 +1712,44 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>407.43</v>
+        <v>441.27</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>100.87</v>
+        <v>91.56</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C0BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C970&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL471157</t>
+          <t>CHEMBL459889</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCO</t>
+          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCO</t>
+          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,16 +1799,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>441.27</v>
+        <v>434.84</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>91.56</v>
+        <v>108.63</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C09E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CCF0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL459889</t>
+          <t>CHEMBL271715</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCOCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCOCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>434.84</v>
+        <v>550.01</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>108.63</v>
+        <v>113.26</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E7A0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL271715</t>
+          <t>CHEMBL471329</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCOCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCc1nnn[nH]1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCOCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCc1nnn[nH]1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>550.01</v>
+        <v>472.89</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>113.26</v>
+        <v>125.79</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CD60&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL471329</t>
+          <t>CHEMBL487757</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCc1nnn[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)n1ccnn1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCc1nnn[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)n1ccnn1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,13 +2003,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>472.89</v>
+        <v>521.9400000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>5</v>
@@ -2021,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>125.79</v>
+        <v>136.18</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C38B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E730&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL487757</t>
+          <t>CHEMBL520182</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)n1ccnn1</t>
+          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)n1ccnn1</t>
+          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>521.9400000000001</v>
+        <v>324.29</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>136.18</v>
+        <v>108.63</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C35A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E5E0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL520182</t>
+          <t>CHEMBL513079</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSc1nnc[nH]1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSc1nnc[nH]1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>324.29</v>
+        <v>489.94</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>108.63</v>
+        <v>112.9</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C34C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E500&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL513079</t>
+          <t>CHEMBL469612</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSc1nnc[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCn3cccc3)cc2n1CCO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSc1nnc[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCn3cccc3)cc2n1CCO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,16 +2207,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>489.94</v>
+        <v>528.01</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
         <v>6</v>
@@ -2225,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>112.9</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E1F0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL469612</t>
+          <t>CHEMBL271071</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCn3cccc3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCn3cccc3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>528.01</v>
+        <v>489.96</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>96.48999999999999</v>
+        <v>94.66</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E110&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL271071</t>
+          <t>CHEMBL366922</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCCC4)c(O)cc3c21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCCC4)c(O)cc3c21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>489.96</v>
+        <v>515.35</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>94.66</v>
+        <v>126.57</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E030&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL366922</t>
+          <t>CHEMBL377839</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccsc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccsc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>515.35</v>
+        <v>334.36</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>126.57</v>
+        <v>82.19</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DD90&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL377839</t>
+          <t>CHEMBL272946</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccsc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccsc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>334.36</v>
+        <v>487.99</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>82.19</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D5B0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL272946</t>
+          <t>CHEMBL530112</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCCC4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCCC4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>487.99</v>
+        <v>498.93</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>85.43000000000001</v>
+        <v>106.22</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D310&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL530112</t>
+          <t>CHEMBL486828</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>498.93</v>
+        <v>524.4</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
@@ -2630,10 +2630,10 @@
         <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>106.22</v>
+        <v>83.8</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D0E0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL486828</t>
+          <t>CHEMBL486661</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>524.4</v>
+        <v>489.96</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C0F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D070&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL486661</t>
+          <t>CHEMBL460079</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>489.96</v>
+        <v>495.97</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
         <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>83.8</v>
+        <v>83.36</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C0CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CDD0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL460079</t>
+          <t>CHEMBL255427</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>Cn1c2cc(OCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>Cn1c2cc(OCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>495.97</v>
+        <v>503.99</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
         <v>6</v>
@@ -2834,10 +2834,10 @@
         <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>83.36</v>
+        <v>83.8</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CC80&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL255427</t>
+          <t>CHEMBL362862</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCOCC4)cc3)nc21</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCOCC4)cc3)nc21</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>503.99</v>
+        <v>596.52</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>83.8</v>
+        <v>98.58</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CC10&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL362862</t>
+          <t>CHEMBL521051</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCOCC4)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCOCC4)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,25 +2955,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>596.52</v>
+        <v>441.49</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>98.58</v>
+        <v>83.8</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C37D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CBA0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL521051</t>
+          <t>CHEMBL214172</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1cccnc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1cccnc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,25 +3023,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>441.49</v>
+        <v>329.32</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>83.8</v>
+        <v>95.08</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CB30&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL214172</t>
+          <t>CHEMBL438566</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccnc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>Cn1c2cc(CCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccnc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>Cn1c2cc(CCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3087,29 +3087,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>329.32</v>
+        <v>518.01</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>95.08</v>
+        <v>83.8</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CAC0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL438566</t>
+          <t>CHEMBL486665</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>518.01</v>
+        <v>470.92</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
         <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>83.8</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C9E0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL486665</t>
+          <t>CHEMBL483611</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,13 +3227,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>470.92</v>
+        <v>552.41</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
         <v>5</v>
@@ -3242,10 +3242,10 @@
         <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>89.15000000000001</v>
+        <v>100.87</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C900&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,52 +3268,52 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL483611</t>
+          <t>C57345561</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
+          <t>[NH3+]C1CCN(Cc2nnn(-c3ccc(Cl)c(C(F)(F)F)c3)c2-c2ccncc2)CC1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
+          <t>[NH3+]C1CCN(Cc2nnn(-c3ccc(Cl)c(C(F)(F)F)c3)c2-c2ccncc2)CC1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>552.41</v>
+        <v>437.88</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>100.87</v>
+        <v>74.48</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A10E0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C57345561</t>
+          <t>C52607219</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[NH3+]C1CCN(Cc2nnn(-c3ccc(Cl)c(C(F)(F)F)c3)c2-c2ccncc2)CC1</t>
+          <t>CC[C@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc2c(c1)CCN2[C@@H](c1ccccc1)c1nnn[nH]1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[NH3+]C1CCN(Cc2nnn(-c3ccc(Cl)c(C(F)(F)F)c3)c2-c2ccncc2)CC1</t>
+          <t>CC[C@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc2c(c1)CCN2[C@@H](c1ccccc1)c1nnn[nH]1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,25 +3363,25 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>437.88</v>
+        <v>467.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>74.48</v>
+        <v>87.11</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98BA00&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C52607219</t>
+          <t>C43743318</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CC[C@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc2c(c1)CCN2[C@@H](c1ccccc1)c1nnn[nH]1</t>
+          <t>CC(=O)O[C@@]1(C(C)=O)CC[C@@H]2[C@H]3C=C(C)C4=C[C@H](OC(=O)CC[NH+]5CCCCC5)CC[C@@]4(C)[C@H]3CC[C@]21C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CC[C@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc2c(c1)CCN2[C@@H](c1ccccc1)c1nnn[nH]1</t>
+          <t>CC(=O)O[C@@]1(C(C)=O)CC[C@@H]2[C@H]3C=C(C)C4=C[C@H](OC(=O)CC[NH+]5CCCCC5)CC[C@@]4(C)[C@H]3CC[C@]21C</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>467.6</v>
+        <v>526.74</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
         <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>87.11</v>
+        <v>74.11</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989BD0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C43743318</t>
+          <t>C20504575</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CC(=O)O[C@@]1(C(C)=O)CC[C@@H]2[C@H]3C=C(C)C4=C[C@H](OC(=O)CC[NH+]5CCCCC5)CC[C@@]4(C)[C@H]3CC[C@]21C</t>
+          <t>C[C@H](C(=O)N1CCSCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CC(=O)O[C@@]1(C(C)=O)CC[C@@H]2[C@H]3C=C(C)C4=C[C@H](OC(=O)CC[NH+]5CCCCC5)CC[C@@]4(C)[C@H]3CC[C@]21C</t>
+          <t>C[C@H](C(=O)N1CCSCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>526.74</v>
+        <v>495.74</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>74.11</v>
+        <v>90.2</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989930&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C20504575</t>
+          <t>C20687752</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)N1CCSCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>C[C@@H](C(=O)NC(=O)NC12CC3CC(CC(C3)C1)C2)[NH+](C)Cc1ccc(OC(F)F)cc1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)N1CCSCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>C[C@@H](C(=O)NC(=O)NC12CC3CC(CC(C3)C1)C2)[NH+](C)Cc1ccc(OC(F)F)cc1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,25 +3567,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>495.74</v>
+        <v>436.52</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>90.2</v>
+        <v>71.87</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A030&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C20687752</t>
+          <t>C12621446</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C[C@@H](C(=O)NC(=O)NC12CC3CC(CC(C3)C1)C2)[NH+](C)Cc1ccc(OC(F)F)cc1</t>
+          <t>Nc1nc(N)nc(CSCc2cccc3cccnc23)n1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C[C@@H](C(=O)NC(=O)NC12CC3CC(CC(C3)C1)C2)[NH+](C)Cc1ccc(OC(F)F)cc1</t>
+          <t>Nc1nc(N)nc(CSCc2cccc3cccnc23)n1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3635,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>436.52</v>
+        <v>298.38</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>71.87</v>
+        <v>103.6</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9898C0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C12621446</t>
+          <t>C00092501</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nc1nc(N)nc(CSCc2cccc3cccnc23)n1</t>
+          <t>CC(C)[C@@H]1C[C@@](O)(C2(O)CCCCC2)ON1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nc1nc(N)nc(CSCc2cccc3cccnc23)n1</t>
+          <t>CC(C)[C@@H]1C[C@@](O)(C2(O)CCCCC2)ON1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>298.38</v>
+        <v>229.32</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>103.6</v>
+        <v>61.72</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989690&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C00092501</t>
+          <t>C41062467</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H]1C[C@@](O)(C2(O)CCCCC2)ON1</t>
+          <t>Cc1n[nH]c(Sc2ccc(Cl)cc2N)n1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H]1C[C@@](O)(C2(O)CCCCC2)ON1</t>
+          <t>Cc1n[nH]c(Sc2ccc(Cl)cc2N)n1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3771,10 +3771,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>229.32</v>
+        <v>240.72</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
@@ -3786,10 +3786,10 @@
         <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>61.72</v>
+        <v>67.59</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9895B0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C41062467</t>
+          <t>C04081367</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c(Sc2ccc(Cl)cc2N)n1</t>
+          <t>C[C@@H]1CC[C@@H]2[C@](C)(CO)[C@@H](O)CC[C@]2(C)[C@@]12CC[C@](C)(CO)O2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c(Sc2ccc(Cl)cc2N)n1</t>
+          <t>C[C@@H]1CC[C@H]2[C@](C)(CC[C@H](O)[C@@]2(C)CO)[C@@]12CC[C@](C)(CO)O2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3839,10 +3839,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>240.72</v>
+        <v>326.48</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>4</v>
@@ -3851,13 +3851,13 @@
         <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>67.59</v>
+        <v>69.92</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AEDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B990&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C04081367</t>
+          <t>C04095454</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C[C@@H]1CC[C@@H]2[C@](C)(CO)[C@@H](O)CC[C@]2(C)[C@@]12CC[C@](C)(CO)O2</t>
+          <t>[H]/N=C1/SC(N)=C(C#N)[C@H](c2c(Cl)cccc2Cl)[C@@H]1C#N</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C[C@@H]1CC[C@H]2[C@](C)(CC[C@H](O)[C@@]2(C)CO)[C@@]12CC[C@](C)(CO)O2</t>
+          <t>[H]/N=C1/SC(N)=C(C#N)[C@H](c2c(Cl)cccc2Cl)[C@@H]1C#N</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>326.48</v>
+        <v>323.21</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
         <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>69.92</v>
+        <v>97.45</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B5A0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C04095454</t>
+          <t>C13041664</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[H]/N=C1/SC(N)=C(C#N)[C@H](c2c(Cl)cccc2Cl)[C@@H]1C#N</t>
+          <t>O=S(=O)(/N=C1/CCCCCN1)c1cccc([N-]S(=O)(=O)c2cccs2)c1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[H]/N=C1/SC(N)=C(C#N)[C@H](c2c(Cl)cccc2Cl)[C@@H]1C#N</t>
+          <t>O=S(=O)(/N=C1/CCCCCN1)c1cccc([N-]S(=O)(=O)c2cccs2)c1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3975,25 +3975,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>323.21</v>
+        <v>412.54</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>97.45</v>
+        <v>106.77</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B4C0&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C13041664</t>
+          <t>C15958228</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>O=S(=O)(/N=C1/CCCCCN1)c1cccc([N-]S(=O)(=O)c2cccs2)c1</t>
+          <t>CC(=O)c1ccc(N2C(=O)[C@@H]3[C@H](Cc4ccccc4)N[C@]4(C(=O)Nc5ccccc54)[C@@H]3C2=O)cc1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>O=S(=O)(/N=C1/CCCCCN1)c1cccc([N-]S(=O)(=O)c2cccs2)c1</t>
+          <t>CC(=O)c1ccc(N2C(=O)[C@@H]3[C@H](Cc4ccccc4)N[C@]4(C(=O)Nc5ccccc54)[C@@H]3C2=O)cc1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4043,25 +4043,25 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>412.54</v>
+        <v>465.51</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
         <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>106.77</v>
+        <v>95.58</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9894D0&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C15958228</t>
+          <t>C02203885</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4092,12 +4092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CC(=O)c1ccc(N2C(=O)[C@@H]3[C@H](Cc4ccccc4)N[C@]4(C(=O)Nc5ccccc54)[C@@H]3C2=O)cc1</t>
+          <t>Nc1nc(F)c(F)c(Oc2ccccc2Oc2c(F)c(N)nc(F)c2F)c1F</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CC(=O)c1ccc(N2C(=O)[C@@H]3[C@H](Cc4ccccc4)N[C@]4(C(=O)Nc5ccccc54)[C@@H]3C2=O)cc1</t>
+          <t>Nc1nc(F)c(F)c(Oc2ccccc2Oc2c(F)c(N)nc(F)c2F)c1F</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4111,25 +4111,25 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>465.51</v>
+        <v>402.25</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
         <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>95.58</v>
+        <v>96.28</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B450&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C02203885</t>
+          <t>C13499749</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nc1nc(F)c(F)c(Oc2ccccc2Oc2c(F)c(N)nc(F)c2F)c1F</t>
+          <t>CCc1nc2sc3c(c2c2nnc(SCC(=O)NNC(=O)c4ccc(C)cc4)n12)CC[C@H](C)C3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nc1nc(F)c(F)c(Oc2ccccc2Oc2c(F)c(N)nc(F)c2F)c1F</t>
+          <t>CCc1nc2sc3c(c2c2nnc(SCC(=O)NNC(=O)c4ccc(C)cc4)n12)CC[C@H](C)C3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>402.25</v>
+        <v>494.65</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -4188,16 +4188,16 @@
         <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>96.28</v>
+        <v>101.28</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A960&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C13499749</t>
+          <t>C39940316</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CCc1nc2sc3c(c2c2nnc(SCC(=O)NNC(=O)c4ccc(C)cc4)n12)CC[C@H](C)C3</t>
+          <t>Oc1cccc(-c2conc3sc(N4N[C@@H](C(F)(F)F)C[C@@H]4c4ccc5ccccc5c4)cn3[nH]2)c1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CCc1nc2sc3c(c2c2nnc(SCC(=O)NNC(=O)c4ccc(C)cc4)n12)CC[C@H](C)C3</t>
+          <t>Oc1cccc(-c2conc3sc(N4N[C@@H](C(F)(F)F)C[C@@H]4c4ccc5ccccc5c4)cn3[nH]2)c1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4247,25 +4247,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>494.65</v>
+        <v>511.53</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
         <v>6</v>
       </c>
-      <c r="J56" t="n">
-        <v>5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5</v>
-      </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
-        <v>101.28</v>
+        <v>81.73</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4276,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A8F0&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C39940316</t>
+          <t>C31161284</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Oc1cccc(-c2conc3sc(N4N[C@@H](C(F)(F)F)C[C@@H]4c4ccc5ccccc5c4)cn3[nH]2)c1</t>
+          <t>CC1=CC[C@H]2C(C)(C)CCC[C@@]2(C)[C@@H]1C[C@@]12O[C@@H]1[C@@H](O)C(CO)=C[C@@H]2O</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Oc1cccc(-c2conc3sc(N4N[C@@H](C(F)(F)F)C[C@@H]4c4ccc5ccccc5c4)cn3[nH]2)c1</t>
+          <t>CC1=CC[C@H]2C(C)(C)CCC[C@@]2(C)[C@@H]1C[C@@]12O[C@@H]1[C@@H](O)C(CO)=C[C@@H]2O</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4315,25 +4315,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>511.53</v>
+        <v>362.51</v>
       </c>
       <c r="H57" t="n">
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>81.73</v>
+        <v>73.22</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4344,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989EE0&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4356,7 +4356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C31161284</t>
+          <t>C61818972</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CC1=CC[C@H]2C(C)(C)CCC[C@@]2(C)[C@@H]1C[C@@]12O[C@@H]1[C@@H](O)C(CO)=C[C@@H]2O</t>
+          <t>Cc1cc(N)c(S(=O)(=O)N2CCC(C)(C)CC2)cc1C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CC1=CC[C@H]2C(C)(C)CCC[C@@]2(C)[C@@H]1C[C@@]12O[C@@H]1[C@@H](O)C(CO)=C[C@@H]2O</t>
+          <t>Cc1cc(N)c(S(=O)(=O)N2CCC(C)(C)CC2)cc1C</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>362.51</v>
+        <v>296.44</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>73.22</v>
+        <v>63.4</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989D20&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4424,7 +4424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C61818972</t>
+          <t>C39930424</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cc1cc(N)c(S(=O)(=O)N2CCC(C)(C)CC2)cc1C</t>
+          <t>Oc1c(Cl)c(Cl)c2c(c1Cl)C[C@H](Nc1nccs1)O2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cc1cc(N)c(S(=O)(=O)N2CCC(C)(C)CC2)cc1C</t>
+          <t>Oc1c(Cl)c(Cl)c2c(c1Cl)C[C@H](Nc1nccs1)O2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4451,25 +4451,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>296.44</v>
+        <v>337.62</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>63.4</v>
+        <v>54.38</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4480,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A650&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C39930424</t>
+          <t>C51329889</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4500,12 +4500,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Oc1c(Cl)c(Cl)c2c(c1Cl)C[C@H](Nc1nccs1)O2</t>
+          <t>COc1ccc([C@H]2NC(=S)N[C@H]3C(=C4SCCS4)CCC[C@@H]23)cc1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Oc1c(Cl)c(Cl)c2c(c1Cl)C[C@H](Nc1nccs1)O2</t>
+          <t>COc1ccc([C@H]2NC(=S)N[C@H]3C(=C4SCCS4)CCC[C@@H]23)cc1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4519,25 +4519,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>337.62</v>
+        <v>378.59</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J60" t="n">
         <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>54.38</v>
+        <v>33.29</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4548,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AEEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989AF0&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4560,7 +4560,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C51329889</t>
+          <t>C61414646</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H]2NC(=S)N[C@H]3C(=C4SCCS4)CCC[C@@H]23)cc1</t>
+          <t>N[C@@H](c1ccc2nccnc2c1)c1ccc(Br)s1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H]2NC(=S)N[C@H]3C(=C4SCCS4)CCC[C@@H]23)cc1</t>
+          <t>N[C@@H](c1ccc2nccnc2c1)c1ccc(Br)s1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4587,25 +4587,25 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>378.59</v>
+        <v>320.21</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>33.29</v>
+        <v>51.8</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A570&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C61414646</t>
+          <t>C35577776</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4636,12 +4636,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>N[C@@H](c1ccc2nccnc2c1)c1ccc(Br)s1</t>
+          <t>Nc1c2c(-c3ccccc3F)nc(NC3CCCC3)nc2nn1-c1cccc(F)c1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>N[C@@H](c1ccc2nccnc2c1)c1ccc(Br)s1</t>
+          <t>Nc1c2c(-c3ccccc3F)nc(NC3CCCC3)nc2nn1-c1cccc(F)c1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4655,25 +4655,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>320.21</v>
+        <v>406.44</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>51.8</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4684,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989F50&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C35577776</t>
+          <t>C44491443</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nc1c2c(-c3ccccc3F)nc(NC3CCCC3)nc2nn1-c1cccc(F)c1</t>
+          <t>C[C@@H]1C[C@H]2[C@@H]3CCC4=CC(=O)C=C[C@@]4(C)[C@]3(Cl)[C@@H](O)C[C@@]2(C)[C@@]1(OC(=O)c1ccco1)C(=O)CCl</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Nc1c2c(-c3ccccc3F)nc(NC3CCCC3)nc2nn1-c1cccc(F)c1</t>
+          <t>C[C@@H]1C[C@H]2[C@@H]3CCC4=CC(=O)C=C[C@@]4(C)[C@]3(Cl)[C@@H](O)C[C@@]2(C)[C@@]1(OC(=O)c1ccco1)C(=O)CCl</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4723,13 +4723,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>406.44</v>
+        <v>521.4400000000001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
         <v>4</v>
@@ -4738,10 +4738,10 @@
         <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>81.65000000000001</v>
+        <v>93.81</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4752,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989850&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4764,7 +4764,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C44491443</t>
+          <t>C01065102</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[C@H]2[C@@H]3CCC4=CC(=O)C=C[C@@]4(C)[C@]3(Cl)[C@@H](O)C[C@@]2(C)[C@@]1(OC(=O)c1ccco1)C(=O)CCl</t>
+          <t>CC1(C)CC(=O)C2=C(C1)N(c1ccc(F)c([N+](=O)[O-])c1)C(N)=C(C#N)[C@@H]2c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[C@H]2[C@@H]3CCC4=CC(=O)C=C[C@@]4(C)[C@]3(Cl)[C@@H](O)C[C@@]2(C)[C@@]1(OC(=O)c1ccco1)C(=O)CCl</t>
+          <t>CC1(C)CC(=O)C2=C(C1)N(c1ccc(F)c([N+](=O)[O-])c1)C(N)=C(C#N)[C@@H]2c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>521.4400000000001</v>
+        <v>511.35</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -4800,16 +4800,16 @@
         <v>6</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>93.81</v>
+        <v>113.26</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4820,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989770&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C01065102</t>
+          <t>C20709209</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CC1(C)CC(=O)C2=C(C1)N(c1ccc(F)c([N+](=O)[O-])c1)C(N)=C(C#N)[C@@H]2c1ccc(Br)cc1</t>
+          <t>O=[N+]([O-])c1ccc(O)c([C@H]2Nc3ccc(S(=O)(=O)N4CCc5ccccc54)cc3[C@@H]3C=CC[C@@H]23)c1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CC1(C)CC(=O)C2=C(C1)N(c1ccc(F)c([N+](=O)[O-])c1)C(N)=C(C#N)[C@@H]2c1ccc(Br)cc1</t>
+          <t>O=[N+]([O-])c1ccc(O)c([C@H]2Nc3ccc(S(=O)(=O)N4CCc5ccccc54)cc3[C@@H]3C=CC[C@@H]23)c1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>511.35</v>
+        <v>489.55</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
         <v>6</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>113.26</v>
+        <v>112.78</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4888,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989620&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C20709209</t>
+          <t>C13657884</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(O)c([C@H]2Nc3ccc(S(=O)(=O)N4CCc5ccccc54)cc3[C@@H]3C=CC[C@@H]23)c1</t>
+          <t>Oc1c(Br)cc(/C=N/NC(=S)NC[C@H]2CCCO2)cc1Br</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(O)c([C@H]2Nc3ccc(S(=O)(=O)N4CCc5ccccc54)cc3[C@@H]3C=CC[C@@H]23)c1</t>
+          <t>Oc1c(Br)cc(/C=N/NC(=S)NC[C@H]2CCCO2)cc1Br</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4927,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>489.55</v>
+        <v>437.16</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" t="n">
         <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>112.78</v>
+        <v>65.88</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4956,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AEC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B530&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C13657884</t>
+          <t>C20731083</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Oc1c(Br)cc(/C=N/NC(=S)NC[C@H]2CCCO2)cc1Br</t>
+          <t>O=C([O-])[C@H](c1c[nH]c2ccc(Br)cc12)[NH+]1CCC(c2noc3cc(F)ccc23)CC1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Oc1c(Br)cc(/C=N/NC(=S)NC[C@H]2CCCO2)cc1Br</t>
+          <t>O=C([O-])[C@H](c1c[nH]c2ccc(Br)cc12)[NH+]1CCC(c2noc3cc(F)ccc23)CC1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4995,25 +4995,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>437.16</v>
+        <v>472.31</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
         <v>4</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>65.88</v>
+        <v>86.39</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5024,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AA40&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5036,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C20731083</t>
+          <t>C59310293</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5044,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>O=C([O-])[C@H](c1c[nH]c2ccc(Br)cc12)[NH+]1CCC(c2noc3cc(F)ccc23)CC1</t>
+          <t>C[C@@H](NC(=O)CSc1n[nH]c(N/N=C/c2ccc3ccc4cccc5ccc2c3c45)n1)c1ccccc1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>O=C([O-])[C@H](c1c[nH]c2ccc(Br)cc12)[NH+]1CCC(c2noc3cc(F)ccc23)CC1</t>
+          <t>C[C@@H](NC(=O)CSc1n[nH]c(N/N=C/c2ccc3ccc4cccc5ccc2c3c45)n1)c1ccccc1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5063,25 +5063,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>472.31</v>
+        <v>504.62</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>86.39</v>
+        <v>95.06</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5092,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AE30&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C59310293</t>
+          <t>C36369743</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)CSc1n[nH]c(N/N=C/c2ccc3ccc4cccc5ccc2c3c45)n1)c1ccccc1</t>
+          <t>CC(=O)[C@@H]1CC[C@@H]2[C@H]3CCC4=C/C(=N\OCC(=O)NCC(C)(C)[C@H](O)C(=O)[O-])CC[C@@]4(C)[C@@H]3CC[C@@]21C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)CSc1n[nH]c(N/N=C/c2ccc3ccc4cccc5ccc2c3c45)n1)c1ccccc1</t>
+          <t>CC(=O)[C@@H]1CC[C@@H]2[C@H]3CCC4=C/C(=N\OCC(=O)NCC(C)(C)[C@H](O)C(=O)[O-])CC[C@@]4(C)[C@@H]3CC[C@]12C</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5131,25 +5131,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>504.62</v>
+        <v>515.67</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
         <v>8</v>
       </c>
       <c r="K69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>95.06</v>
+        <v>128.12</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989FC0&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5172,7 +5172,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C36369743</t>
+          <t>C50122289</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5180,12 +5180,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CC(=O)[C@@H]1CC[C@@H]2[C@H]3CCC4=C/C(=N\OCC(=O)NCC(C)(C)[C@H](O)C(=O)[O-])CC[C@@]4(C)[C@@H]3CC[C@@]21C</t>
+          <t>[NH2+]=C1[C@@H](c2cc(Cl)c3c(c2)OCCCO3)[NH+]=CN1C1CC1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CC(=O)[C@@H]1CC[C@@H]2[C@H]3CCC4=C/C(=N\OCC(=O)NCC(C)(C)[C@H](O)C(=O)[O-])CC[C@@]4(C)[C@@H]3CC[C@]12C</t>
+          <t>[NH2+]=C1[C@@H](c2cc(Cl)c3c(c2)OCCCO3)[NH+]=CN1C1CC1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5199,25 +5199,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>515.67</v>
+        <v>307.78</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
         <v>4</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>128.12</v>
+        <v>61.26</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5228,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B370&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5240,7 +5240,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C50122289</t>
+          <t>C59116044</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[NH2+]=C1[C@@H](c2cc(Cl)c3c(c2)OCCCO3)[NH+]=CN1C1CC1</t>
+          <t>Nc1ccc2oc(Cc3ccc4nc(N)sc4c3)nc2c1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[NH2+]=C1[C@@H](c2cc(Cl)c3c(c2)OCCCO3)[NH+]=CN1C1CC1</t>
+          <t>Nc1ccc2oc(Cc3ccc4nc(N)sc4c3)nc2c1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5267,13 +5267,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>307.78</v>
+        <v>296.36</v>
       </c>
       <c r="H71" t="n">
         <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
         <v>2</v>
@@ -5282,10 +5282,10 @@
         <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>61.26</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5296,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A340&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C59116044</t>
+          <t>C17020887</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5316,12 +5316,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nc1ccc2oc(Cc3ccc4nc(N)sc4c3)nc2c1</t>
+          <t>C[C@@]12CC[C@H]3c4ccc(O)cc4CC[C@@H]3[C@H]1C/C(=N/O)[C@H]2O</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Nc1ccc2oc(Cc3ccc4nc(N)sc4c3)nc2c1</t>
+          <t>C[C@@]12CC[C@H]3c4ccc(O)cc4CC[C@@H]3[C@H]1C/C(=N/O)[C@H]2O</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5335,25 +5335,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>296.36</v>
+        <v>301.39</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>4</v>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>90.95999999999999</v>
+        <v>73.05</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5364,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989C40&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C17020887</t>
+          <t>C50693561</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>C[C@@]12CC[C@H]3c4ccc(O)cc4CC[C@@H]3[C@H]1C/C(=N/O)[C@H]2O</t>
+          <t>Nc1cc[nH+]c(/C([O-])=N/c2cc(C(F)(F)F)ccc2Cl)c1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>C[C@@]12CC[C@H]3c4ccc(O)cc4CC[C@@H]3[C@H]1C/C(=N/O)[C@H]2O</t>
+          <t>Nc1cc[nH+]c(/C([O-])=N/c2cc(C(F)(F)F)ccc2Cl)c1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5403,25 +5403,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>301.39</v>
+        <v>315.68</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
-        <v>73.05</v>
+        <v>75.58</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5432,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98BA70&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5444,7 +5444,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C50693561</t>
+          <t>C15768956</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5452,12 +5452,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nc1cc[nH+]c(/C([O-])=N/c2cc(C(F)(F)F)ccc2Cl)c1</t>
+          <t>COc1ccc(OC)c([C@H]2[NH2+][C@@H](c3cc(OC)ccc3OC)[C@@H](C)C(O)(c3ccc(F)cc3)[C@@H]2C)c1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nc1cc[nH+]c(/C([O-])=N/c2cc(C(F)(F)F)ccc2Cl)c1</t>
+          <t>COc1ccc(OC)c([C@H]2[NH2+][C@@H](c3cc(OC)ccc3OC)[C@@H](C)C(O)(c3ccc(F)cc3)[C@@H]2C)c1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5471,25 +5471,25 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>315.68</v>
+        <v>496.6</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>75.58</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A2D0&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5512,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C15768956</t>
+          <t>C08965442</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>COc1ccc(OC)c([C@H]2[NH2+][C@@H](c3cc(OC)ccc3OC)[C@@H](C)C(O)(c3ccc(F)cc3)[C@@H]2C)c1</t>
+          <t>Cc1nc(SCC2=C(C(=O)OC(C)C)[C@H](c3cccs3)C(C#N)=C(N)O2)c(C#N)c(C)c1C</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>COc1ccc(OC)c([C@H]2[NH2+][C@@H](c3cc(OC)ccc3OC)[C@@H](C)C(O)(c3ccc(F)cc3)[C@@H]2C)c1</t>
+          <t>Cc1nc(SCC2=C(C(=O)OC(C)C)[C@H](c3cccs3)C(C#N)=C(N)O2)c(C#N)c(C)c1C</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5539,25 +5539,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>496.6</v>
+        <v>480.62</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>73.76000000000001</v>
+        <v>122.02</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5568,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98BB50&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5580,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C08965442</t>
+          <t>C08856105</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cc1nc(SCC2=C(C(=O)OC(C)C)[C@H](c3cccs3)C(C#N)=C(N)O2)c(C#N)c(C)c1C</t>
+          <t>COCc1cc(C)nc2c1C1=NC(c3ccccc3)(c3ccccc3)c3ccccc3N1C(N)=CS2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cc1nc(SCC2=C(C(=O)OC(C)C)[C@H](c3cccs3)C(C#N)=C(N)O2)c(C#N)c(C)c1C</t>
+          <t>COCc1cc(C)nc2c1C1=NC(c3ccccc3)(c3ccccc3)c3ccccc3N1C(N)=CS2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5607,25 +5607,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>480.62</v>
+        <v>490.63</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" t="n">
         <v>6</v>
       </c>
-      <c r="K76" t="n">
-        <v>3</v>
-      </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>122.02</v>
+        <v>63.74</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5636,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AF610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B760&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5648,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C08856105</t>
+          <t>C39560807</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COCc1cc(C)nc2c1C1=NC(c3ccccc3)(c3ccccc3)c3ccccc3N1C(N)=CS2</t>
+          <t>COC(=O)[C@@H]1CC2=C3CC=CC=C3N=C2[C@H]2C[C@@H]([NH+]3CC[C@@H](O)C3)C[C@@H](c3ccc(SC)cc3)N21</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>COCc1cc(C)nc2c1C1=NC(c3ccccc3)(c3ccccc3)c3ccccc3N1C(N)=CS2</t>
+          <t>COC(=O)[C@@H]1CC2=C3CC=CC=C3N=C2[C@H]2C[C@@H]([NH+]3CC[C@@H](O)C3)C[C@@H](c3ccc(SC)cc3)N12</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5675,10 +5675,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>490.63</v>
+        <v>492.67</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
         <v>5</v>
@@ -5690,10 +5690,10 @@
         <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>63.74</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5704,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B610&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C39560807</t>
+          <t>C66683231</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5724,12 +5724,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>COC(=O)[C@@H]1CC2=C3CC=CC=C3N=C2[C@H]2C[C@@H]([NH+]3CC[C@@H](O)C3)C[C@@H](c3ccc(SC)cc3)N21</t>
+          <t>Cc1cc(NC(=O)N2CCC[C@@H](c3ccccc3)CC2)ccc1C(=O)NC(C)C</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>COC(=O)[C@@H]1CC2=C3CC=CC=C3N=C2[C@H]2C[C@@H]([NH+]3CC[C@@H](O)C3)C[C@@H](c3ccc(SC)cc3)N12</t>
+          <t>Cc1cc(NC(=O)N2CCC[C@@H](c3ccccc3)CC2)ccc1C(=O)NC(C)C</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5743,25 +5743,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>492.67</v>
+        <v>393.53</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
         <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>66.56999999999999</v>
+        <v>61.44</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5772,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A80B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B0D0&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5784,7 +5784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C66683231</t>
+          <t>C13251264</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5792,12 +5792,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cc1cc(NC(=O)N2CCC[C@@H](c3ccccc3)CC2)ccc1C(=O)NC(C)C</t>
+          <t>O=C([O-])c1ccc(Br)c(S(=O)(=O)N(Cc2ccco2)Cc2ccccc2O)c1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cc1cc(NC(=O)N2CCC[C@@H](c3ccccc3)CC2)ccc1C(=O)NC(C)C</t>
+          <t>O=C([O-])c1ccc(Br)c(S(=O)(=O)N(Cc2ccco2)Cc2ccccc2O)c1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5811,25 +5811,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>393.53</v>
+        <v>465.3</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K79" t="n">
         <v>3</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>61.44</v>
+        <v>110.88</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5840,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AB20&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5852,7 +5852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C13251264</t>
+          <t>C35427274</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5860,12 +5860,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>O=C([O-])c1ccc(Br)c(S(=O)(=O)N(Cc2ccco2)Cc2ccccc2O)c1</t>
+          <t>C[NH+]1CCc2c(sc3c2CN(C(=O)NCCc2ccccc2)[C@@H](c2ccc(F)cc2)c2cccn2-3)C1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>O=C([O-])c1ccc(Br)c(S(=O)(=O)N(Cc2ccco2)Cc2ccccc2O)c1</t>
+          <t>C[NH+]1CCc2c(sc3c2CN(C(=O)NCCc2ccccc2)[C@@H](c2ccc(F)cc2)c2cccn2-3)C1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5879,25 +5879,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>465.3</v>
+        <v>501.65</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" t="n">
         <v>6</v>
       </c>
-      <c r="J80" t="n">
-        <v>7</v>
-      </c>
-      <c r="K80" t="n">
-        <v>3</v>
-      </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>110.88</v>
+        <v>41.71</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5908,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A260&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5920,7 +5920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C35427274</t>
+          <t>C45254024</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>C[NH+]1CCc2c(sc3c2CN(C(=O)NCCc2ccccc2)[C@@H](c2ccc(F)cc2)c2cccn2-3)C1</t>
+          <t>CC1(C)CN2C(N)=N[C@](c3ccc(OC(F)(F)F)cc3)(c3cccc(-c4cccnc4F)c3)C2=N1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>C[NH+]1CCc2c(sc3c2CN(C(=O)NCCc2ccccc2)[C@@H](c2ccc(F)cc2)c2cccn2-3)C1</t>
+          <t>CC1(C)CN2C(N)=N[C@](c3ccc(OC(F)(F)F)cc3)(c3cccc(-c4cccnc4F)c3)C2=N1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5947,25 +5947,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>501.65</v>
+        <v>483.47</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
         <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>41.71</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AC00&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -5988,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C45254024</t>
+          <t>C42174294</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CC1(C)CN2C(N)=N[C@](c3ccc(OC(F)(F)F)cc3)(c3cccc(-c4cccnc4F)c3)C2=N1</t>
+          <t>CN(C(=O)[C@H]1C[C@H]2CC[C@@H]1C2)c1ccncc1N</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CC1(C)CN2C(N)=N[C@](c3ccc(OC(F)(F)F)cc3)(c3cccc(-c4cccnc4F)c3)C2=N1</t>
+          <t>CN(C(=O)[C@H]1C[C@H]2CC[C@@H]1C2)c1ccncc1N</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6015,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>483.47</v>
+        <v>245.33</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>76.09999999999999</v>
+        <v>59.22</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6044,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A810&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6056,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C42174294</t>
+          <t>C43424803</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6064,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CN(C(=O)[C@H]1C[C@H]2CC[C@@H]1C2)c1ccncc1N</t>
+          <t>N#Cc1cc(N)ccc1N1CCO[C@@H]2CCCC[C@@H]21</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CN(C(=O)[C@H]1C[C@H]2CC[C@@H]1C2)c1ccncc1N</t>
+          <t>N#Cc1cc(N)ccc1N1CCO[C@@H]2CCCC[C@@H]21</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6083,16 +6083,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>245.33</v>
+        <v>257.34</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>3</v>
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>59.22</v>
+        <v>62.28</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6112,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A82E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989E00&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C43424803</t>
+          <t>C44790296</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6132,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>N#Cc1cc(N)ccc1N1CCO[C@@H]2CCCC[C@@H]21</t>
+          <t>C[C@@H]1CCC/C=C/[C@@H]2C[C@H](O)C[C@@H]2[C@@H](O)/C=C/C(=O)O1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>N#Cc1cc(N)ccc1N1CCO[C@@H]2CCCC[C@@H]21</t>
+          <t>C[C@@H]1CCC/C=C/[C@@H]2C[C@H](O)C[C@@H]2[C@@H](O)/C=C/C(=O)O1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6151,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>257.34</v>
+        <v>280.36</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
         <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>62.28</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6180,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AF80&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C44790296</t>
+          <t>C34107785</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6200,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC/C=C/[C@@H]2C[C@H](O)C[C@@H]2[C@@H](O)/C=C/C(=O)O1</t>
+          <t>C[C@@H]1CCCN(C2=NC(=O)/C(=C/c3ccc(-c4ccc(S(N)(=O)=O)cc4)o3)S2)C1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC/C=C/[C@@H]2C[C@H](O)C[C@@H]2[C@@H](O)/C=C/C(=O)O1</t>
+          <t>C[C@@H]1CCCN(C2=NC(=O)/C(=C/c3ccc(-c4ccc(S(N)(=O)=O)cc4)o3)S2)C1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6215,29 +6215,29 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>280.36</v>
+        <v>431.54</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>66.76000000000001</v>
+        <v>105.97</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6248,7 +6248,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A83C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AF10&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6260,7 +6260,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C34107785</t>
+          <t>C14885806</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCN(C2=NC(=O)/C(=C/c3ccc(-c4ccc(S(N)(=O)=O)cc4)o3)S2)C1</t>
+          <t>OC[C@@H]1CCCN(c2nc3cc4c(cc3cc2C[NH2+]CCC2=CCCCC2)OCO4)C1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCN(C2=NC(=O)/C(=C/c3ccc(-c4ccc(S(N)(=O)=O)cc4)o3)S2)C1</t>
+          <t>OC[C@@H]1CCCN(c2nc3cc4c(cc3cc2C[NH2+]CCC2=CCCCC2)OCO4)C1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6287,25 +6287,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>431.54</v>
+        <v>424.57</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L86" t="n">
         <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>105.97</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6316,7 +6316,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A730&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6328,7 +6328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C14885806</t>
+          <t>C02201806</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6336,12 +6336,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>OC[C@@H]1CCCN(c2nc3cc4c(cc3cc2C[NH2+]CCC2=CCCCC2)OCO4)C1</t>
+          <t>N#C/C(=C\c1c(N2CCN(c3ccccc3)CC2)nc2ccccn2c1=O)C(N)=O</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>OC[C@@H]1CCCN(c2nc3cc4c(cc3cc2C[NH2+]CCC2=CCCCC2)OCO4)C1</t>
+          <t>N#C/C(=C\c1c(N2CCN(c3ccccc3)CC2)nc2ccccn2c1=O)C(N)=O</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6355,25 +6355,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>424.57</v>
+        <v>400.44</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>71.43000000000001</v>
+        <v>107.73</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6384,7 +6384,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A84A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B8B0&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C02201806</t>
+          <t>C50558826</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>N#C/C(=C\c1c(N2CCN(c3ccccc3)CC2)nc2ccccn2c1=O)C(N)=O</t>
+          <t>O=C(NCC(=O)N1CCC[C@@H]1c1nnc2n1CCCCC2)NCC1CCCC1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>N#C/C(=C\c1c(N2CCN(c3ccccc3)CC2)nc2ccccn2c1=O)C(N)=O</t>
+          <t>O=C(NCC(=O)N1CCC[C@@H]1c1nnc2n1CCCCC2)NCC1CCCC1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6423,25 +6423,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>400.44</v>
+        <v>388.52</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K88" t="n">
         <v>4</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>107.73</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6452,7 +6452,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B3E0&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C50558826</t>
+          <t>C02411007</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6472,12 +6472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>O=C(NCC(=O)N1CCC[C@@H]1c1nnc2n1CCCCC2)NCC1CCCC1</t>
+          <t>Nc1c(S(=O)(=O)c2ccc(Cl)cc2)c2nc3ccccc3nc2n1/N=C/c1cccs1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>O=C(NCC(=O)N1CCC[C@@H]1c1nnc2n1CCCCC2)NCC1CCCC1</t>
+          <t>Nc1c(S(=O)(=O)c2ccc(Cl)cc2)c2nc3ccccc3nc2n1/N=C/c1cccs1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6491,25 +6491,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>388.52</v>
+        <v>467.96</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M89" t="n">
-        <v>92.15000000000001</v>
+        <v>103.23</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6520,7 +6520,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A490&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6532,7 +6532,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C02411007</t>
+          <t>C16385782</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nc1c(S(=O)(=O)c2ccc(Cl)cc2)c2nc3ccccc3nc2n1/N=C/c1cccs1</t>
+          <t>O=C(NC(=S)Nc1ccc(Cl)cc1C(=O)[O-])c1ccc([N+](=O)[O-])cc1Cl</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Nc1c(S(=O)(=O)c2ccc(Cl)cc2)c2nc3ccccc3nc2n1/N=C/c1cccs1</t>
+          <t>O=C(NC(=S)Nc1ccc(Cl)cc1C(=O)[O-])c1ccc([N+](=O)[O-])cc1Cl</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6559,25 +6559,25 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>467.96</v>
+        <v>413.22</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J90" t="n">
         <v>4</v>
       </c>
       <c r="K90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M90" t="n">
-        <v>103.23</v>
+        <v>124.4</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6588,7 +6588,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A85F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989E70&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6600,7 +6600,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C16385782</t>
+          <t>C16034506</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6608,12 +6608,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>O=C(NC(=S)Nc1ccc(Cl)cc1C(=O)[O-])c1ccc([N+](=O)[O-])cc1Cl</t>
+          <t>COc1cc(OC)c([C@@H]2[C@@H]3C[C@@H](C(C)(C)C)CC=C3C(C#N)=C(N)C2(C#N)C#N)cc1OC</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>O=C(NC(=S)Nc1ccc(Cl)cc1C(=O)[O-])c1ccc([N+](=O)[O-])cc1Cl</t>
+          <t>COc1cc(OC)c([C@@H]2[C@@H]3C[C@@H](C(C)(C)C)CC=C3C(C#N)=C(N)C2(C#N)C#N)cc1OC</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6627,10 +6627,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>413.22</v>
+        <v>446.55</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>7</v>
@@ -6639,13 +6639,13 @@
         <v>4</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>124.4</v>
+        <v>125.08</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6656,7 +6656,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A180&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C16034506</t>
+          <t>CHEMBL4528675</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>COc1cc(OC)c([C@@H]2[C@@H]3C[C@@H](C(C)(C)C)CC=C3C(C#N)=C(N)C2(C#N)C#N)cc1OC</t>
+          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>COc1cc(OC)c([C@@H]2[C@@H]3C[C@@H](C(C)(C)C)CC=C3C(C#N)=C(N)C2(C#N)C#N)cc1OC</t>
+          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6691,11 +6691,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>446.55</v>
+        <v>535.55</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -6704,27 +6704,53 @@
         <v>7</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M92" t="n">
-        <v>125.08</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
+        <v>107.06</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>CHEMBL4366639</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Inhibition of human WEE1 at 100 nM using MBP as substrate by [gamma-33P]-ATP assay</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B920&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6736,7 +6762,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CHEMBL4528675</t>
+          <t>CHEMBL2402081</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6744,12 +6770,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
+          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
+          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6763,16 +6789,16 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>535.55</v>
+        <v>432.46</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J93" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
         <v>5</v>
@@ -6781,7 +6807,7 @@
         <v>4</v>
       </c>
       <c r="M93" t="n">
-        <v>107.06</v>
+        <v>84.97</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -6799,16 +6825,16 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>6.18</v>
+        <v>11</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>CHEMBL4366639</t>
+          <t>CHEMBL2405481</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>Inhibition of human WEE1 at 100 nM using MBP as substrate by [gamma-33P]-ATP assay</t>
+          <t>Inhibition of WEE1 (unknown origin) at 10 uM relative to control</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -6818,7 +6844,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B7D0&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6830,7 +6856,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHEMBL2402081</t>
+          <t>CHEMBL166031</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6838,12 +6864,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
+          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
+          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6857,25 +6883,25 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>432.46</v>
+        <v>352.39</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J94" t="n">
         <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M94" t="n">
-        <v>84.97</v>
+        <v>89.28</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -6893,16 +6919,16 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>11</v>
+        <v>-4.91</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>CHEMBL2405481</t>
+          <t>CHEMBL3631623</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM relative to control</t>
+          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -6912,7 +6938,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A87B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B220&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6924,7 +6950,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHEMBL166031</t>
+          <t>CHEMBL4459587</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6932,12 +6958,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
+          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
+          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6951,16 +6977,16 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>352.39</v>
+        <v>323.42</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K95" t="n">
         <v>3</v>
@@ -6969,7 +6995,7 @@
         <v>3</v>
       </c>
       <c r="M95" t="n">
-        <v>89.28</v>
+        <v>46.17</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -6987,16 +7013,16 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>-4.91</v>
+        <v>-4</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>CHEMBL3631623</t>
+          <t>CHEMBL4378983</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
+          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 10 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate measured after 40 mins in presence of [gamm33P]ATP by scintillation counting method relative to control</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -7006,7 +7032,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B1B0&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -7018,7 +7044,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CHEMBL4459587</t>
+          <t>CHEMBL2170414</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7026,12 +7052,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
+          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
+          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -7045,13 +7071,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>323.42</v>
+        <v>357.78</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
         <v>5</v>
@@ -7063,7 +7089,7 @@
         <v>3</v>
       </c>
       <c r="M96" t="n">
-        <v>46.17</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7081,16 +7107,16 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>CHEMBL4378983</t>
+          <t>CHEMBL2174406</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 10 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate measured after 40 mins in presence of [gamm33P]ATP by scintillation counting method relative to control</t>
+          <t>Inhibition of WEE1 at 1 uM by 33P kinase hotspot assay</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -7100,7 +7126,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AFF0&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7112,7 +7138,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CHEMBL2170414</t>
+          <t>CHEMBL3628628</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7120,12 +7146,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
+          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
+          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7139,25 +7165,25 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>357.78</v>
+        <v>453.93</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
         <v>5</v>
       </c>
       <c r="J97" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M97" t="n">
-        <v>92.93000000000001</v>
+        <v>94.06</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7175,16 +7201,16 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>16</v>
+        <v>-30.02</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>CHEMBL2174406</t>
+          <t>CHEMBL3631623</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Inhibition of WEE1 at 1 uM by 33P kinase hotspot assay</t>
+          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -7194,7 +7220,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AEA0&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7206,7 +7232,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CHEMBL3628628</t>
+          <t>CHEMBL4084955</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7214,12 +7240,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
+          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
+          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7233,25 +7259,25 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>453.93</v>
+        <v>195.22</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>94.06</v>
+        <v>41.57</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7269,16 +7295,16 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>-30.02</v>
+        <v>7.1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>CHEMBL3631623</t>
+          <t>CHEMBL4034515</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
+          <t>Inhibition of WEE1 Lysine 2 labelling site (unknown origin) at 10 uM</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -7288,7 +7314,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A9D0&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7300,7 +7326,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHEMBL4084955</t>
+          <t>CHEMBL3746293</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7308,12 +7334,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
+          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
+          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7327,25 +7353,25 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>195.22</v>
+        <v>529.6</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K99" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M99" t="n">
-        <v>41.57</v>
+        <v>107.94</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7363,16 +7389,16 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>7.1</v>
+        <v>-1.8</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>CHEMBL4034515</t>
+          <t>CHEMBL3751119</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>Inhibition of WEE1 Lysine 2 labelling site (unknown origin) at 10 uM</t>
+          <t>Inhibition of WEE1 (unknown origin) at 1 uM</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -7382,7 +7408,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A89E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989CB0&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7394,7 +7420,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CHEMBL3746293</t>
+          <t>CHEMBL5081774</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7402,12 +7428,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
+          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
+          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7421,25 +7447,25 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>529.6</v>
+        <v>370.42</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M100" t="n">
-        <v>107.94</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7457,16 +7483,16 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>-1.8</v>
+        <v>10</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>CHEMBL3751119</t>
+          <t>CHEMBL5059363</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>Inhibition of WEE1 (unknown origin) at 1 uM</t>
+          <t>Wee1(h) Kinase panel</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -7476,7 +7502,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A420&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7488,7 +7514,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CHEMBL5081774</t>
+          <t>CHEMBL3815093</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7496,12 +7522,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
+          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
+          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7515,25 +7541,25 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>370.42</v>
+        <v>417.49</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M101" t="n">
-        <v>81.51000000000001</v>
+        <v>105.68</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7551,16 +7577,16 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>CHEMBL5059363</t>
+          <t>CHEMBL3816877</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Wee1(h) Kinase panel</t>
+          <t>Inhibition of human WEE1 at 1 uM using MBP substrate</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -7570,7 +7596,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989460&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7582,7 +7608,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CHEMBL3815093</t>
+          <t>C37605745</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7590,12 +7616,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
+          <t>CC(C)c1noc(-c2cc(N)c(F)cc2F)n1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
+          <t>CC(C)c1noc(-c2cc(N)c(F)cc2F)n1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7605,137 +7631,43 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>417.49</v>
+        <v>239.22</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>105.68</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>0</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>CHEMBL3816877</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>Inhibition of human WEE1 at 1 uM using MBP substrate</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>64.94</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989A10&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>C37605745</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>CC(C)c1noc(-c2cc(N)c(F)cc2F)n1</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>CC(C)c1noc(-c2cc(N)c(F)cc2F)n1</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>239.22</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>4</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2</v>
-      </c>
-      <c r="K103" t="n">
-        <v>2</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2</v>
-      </c>
-      <c r="M103" t="n">
-        <v>64.94</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72A8BA0&gt;</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_train.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_train.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL515352</t>
+          <t>CHEMBL472689</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O=C(CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O)NS(=O)(=O)c1ccccc1</t>
+          <t>Cn1c2cc(C(=O)NCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O=C(CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O)NS(=O)(=O)c1ccccc1</t>
+          <t>Cn1c2cc(C(=O)NCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>574.01</v>
+        <v>512.95</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>6</v>
@@ -593,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>134.57</v>
+        <v>105.36</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54040&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL486517</t>
+          <t>CHEMBL472209</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)n1ccnn1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)c1nnc[nH]1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)n1ccnn1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)c1nnc[nH]1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>505.94</v>
+        <v>521.9400000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>119.11</v>
+        <v>147.04</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54C10&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL472689</t>
+          <t>CHEMBL474714</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cn1c2cc(C(=O)NCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c2cc(SCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cn1c2cc(C(=O)NCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c2cc(SCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,16 +711,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>512.95</v>
+        <v>516.02</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
@@ -729,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>105.36</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54DD0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL474714</t>
+          <t>CHEMBL521200</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cn1c2cc(SCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSn1ccnn1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cn1c2cc(SCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSn1ccnn1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>516.02</v>
+        <v>489.94</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>76.26000000000001</v>
+        <v>102.04</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55230&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL475524</t>
+          <t>CHEMBL475325</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)CCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)CCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>532.02</v>
+        <v>296.28</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>93.33</v>
+        <v>91.56</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D7E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE57760&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL485638</t>
+          <t>CHEMBL475524</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCn4cccc4)c(O)cc3c21</t>
+          <t>Cn1c2cc(S(=O)CCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCn4cccc4)c(O)cc3c21</t>
+          <t>Cn1c2cc(S(=O)CCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>485.93</v>
+        <v>532.02</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>96.34999999999999</v>
+        <v>93.33</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55D90&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL213422</t>
+          <t>CHEMBL485638</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cc[nH]c1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCn4cccc4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cc[nH]c1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCn4cccc4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>317.3</v>
+        <v>485.93</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
         <v>5</v>
       </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
       <c r="M8" t="n">
-        <v>97.98</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56180&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL514192</t>
+          <t>CHEMBL488783</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)NCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c2cc(CCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)NCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c2cc(CCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>549.01</v>
+        <v>497.98</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>6</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>122.43</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D4D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE562D0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL178510</t>
+          <t>CHEMBL514192</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC4N=NN=N4)cc3)nc21</t>
+          <t>Cn1c2cc(S(=O)(=O)NCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC4N=NN=N4)cc3)nc21</t>
+          <t>Cn1c2cc(S(=O)(=O)NCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>507.39</v>
+        <v>549.01</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
         <v>5</v>
       </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
       <c r="M10" t="n">
-        <v>109.25</v>
+        <v>122.43</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55700&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL540206</t>
+          <t>CHEMBL518903</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CCN(CC)CCOc1ccc(Nc2ncc3cc(-c4c(Cl)cc(O)cc4Cl)c(=O)n(C)c3n2)cc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCn4cccc4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCN(CC)CCOc1ccc(Nc2ncc3cc(-c4c(Cl)cc(O)cc4Cl)c(=O)n(C)c3n2)cc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCn4cccc4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>528.4400000000001</v>
+        <v>483.96</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>92.51000000000001</v>
+        <v>87.12</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D3F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55AF0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL181285</t>
+          <t>CHEMBL178510</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC4N=NN=N4)cc3)nc21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC4N=NN=N4)cc3)nc21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>499.35</v>
+        <v>507.39</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="J12" t="n">
-        <v>8</v>
-      </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>106.34</v>
+        <v>109.25</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56420&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL519238</t>
+          <t>CHEMBL472687</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>Cn1c2cc(OCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>Cn1c2cc(OCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>436.47</v>
+        <v>499.95</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
@@ -1341,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>89.15000000000001</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE559A0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL508294</t>
+          <t>CHEMBL540206</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
+          <t>CCN(CC)CCOc1ccc(Nc2ncc3cc(-c4c(Cl)cc(O)cc4Cl)c(=O)n(C)c3n2)cc1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
+          <t>CCN(CC)CCOc1ccc(Nc2ncc3cc(-c4c(Cl)cc(O)cc4Cl)c(=O)n(C)c3n2)cc1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>491.33</v>
+        <v>528.4400000000001</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>89.15000000000001</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE558C0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL257857</t>
+          <t>CHEMBL181285</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>552.05</v>
+        <v>499.35</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>108.71</v>
+        <v>106.34</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CE40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54350&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL483801</t>
+          <t>CHEMBL519238</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CN(C)CCNC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CN(C)CCNC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>394.43</v>
+        <v>436.47</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
         <v>5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>6</v>
       </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>103.67</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D8C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE547B0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL488571</t>
+          <t>CHEMBL508294</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>374.36</v>
+        <v>491.33</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" t="n">
         <v>5</v>
       </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4</v>
-      </c>
       <c r="M17" t="n">
-        <v>106.22</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54900&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL520049</t>
+          <t>CHEMBL362692</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCCCC4)cc3)nc21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCCCC4)cc3)nc21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>407.43</v>
+        <v>594.54</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>100.87</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54A50&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL471157</t>
+          <t>CHEMBL257857</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,44 +1712,44 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCO</t>
+          <t>Cn1c2cc(S(=O)(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCO</t>
+          <t>Cn1c2cc(S(=O)(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>441.27</v>
+        <v>552.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>91.56</v>
+        <v>108.71</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54EB0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL459889</t>
+          <t>CHEMBL488571</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,35 +1780,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>434.84</v>
+        <v>374.36</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>108.63</v>
+        <v>106.22</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE552A0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL271715</t>
+          <t>CHEMBL520049</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,44 +1848,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCOCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCOCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>550.01</v>
+        <v>407.43</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>113.26</v>
+        <v>100.87</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55540&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL471329</t>
+          <t>CHEMBL510668</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,32 +1916,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCc1nnn[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCc1nnn[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>472.89</v>
+        <v>455.51</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
         <v>5</v>
@@ -1950,10 +1950,10 @@
         <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>125.79</v>
+        <v>83.8</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CD60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE557E0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL487757</t>
+          <t>CHEMBL378347</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,44 +1984,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)n1ccnn1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccncc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)n1ccnn1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccncc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>521.9400000000001</v>
+        <v>329.32</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
         <v>5</v>
       </c>
-      <c r="K23" t="n">
-        <v>6</v>
-      </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>136.18</v>
+        <v>95.08</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55D20&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL520182</t>
+          <t>CHEMBL271715</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCOCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCOCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>324.29</v>
+        <v>550.01</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>108.63</v>
+        <v>113.26</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55CB0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL513079</t>
+          <t>CHEMBL471329</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSc1nnc[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCc1nnn[nH]1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSc1nnc[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCc1nnn[nH]1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>489.94</v>
+        <v>472.89</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
@@ -2157,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>112.9</v>
+        <v>125.79</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54430&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL469612</t>
+          <t>CHEMBL484808</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCn3cccc3)cc2n1CCO</t>
+          <t>NC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCn3cccc3)cc2n1CCO</t>
+          <t>NC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>528.01</v>
+        <v>323.31</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
@@ -2216,16 +2216,16 @@
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>96.48999999999999</v>
+        <v>114.42</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55930&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL271071</t>
+          <t>CHEMBL255565</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCCC4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCCC4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>489.96</v>
+        <v>532.04</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
         <v>6</v>
@@ -2293,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>94.66</v>
+        <v>94.8</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55E00&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL366922</t>
+          <t>CHEMBL271071</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>515.35</v>
+        <v>489.96</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>126.57</v>
+        <v>94.66</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55E70&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL377839</t>
+          <t>CHEMBL271084</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccsc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>Cn1c2cc(CCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccsc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>Cn1c2cc(CCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>334.36</v>
+        <v>502.01</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>82.19</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DD90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55F50&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL272946</t>
+          <t>CHEMBL366922</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCCC4)c(O)cc3c21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCCC4)c(O)cc3c21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>487.99</v>
+        <v>515.35</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>85.43000000000001</v>
+        <v>126.57</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56030&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL530112</t>
+          <t>CHEMBL272946</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>498.93</v>
+        <v>487.99</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
         <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>106.22</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE57290&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL486828</t>
+          <t>CHEMBL460079</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>524.4</v>
+        <v>495.97</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
         <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>83.8</v>
+        <v>83.36</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D0E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56A40&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL486661</t>
+          <t>CHEMBL255427</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>Cn1c2cc(OCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>Cn1c2cc(OCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>489.96</v>
+        <v>503.99</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
@@ -2692,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
         <v>6</v>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE568F0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL460079</t>
+          <t>CHEMBL508412</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5Cl)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5Cl)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>495.97</v>
+        <v>503</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
         <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>83.36</v>
+        <v>77.81</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CDD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56880&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL255427</t>
+          <t>CHEMBL452079</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>503.99</v>
+        <v>461.52</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
         <v>6</v>
@@ -2834,10 +2834,10 @@
         <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>83.8</v>
+        <v>83.36</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56810&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL362862</t>
+          <t>CHEMBL472542</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCOCC4)cc3)nc21</t>
+          <t>NC(=O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCOCC4)cc3)nc21</t>
+          <t>NC(=O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2883,20 +2883,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>596.52</v>
+        <v>433.85</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>5</v>
@@ -2905,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>98.58</v>
+        <v>114.42</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CC10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE566C0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL521051</t>
+          <t>CHEMBL471163</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,29 +2951,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>441.49</v>
+        <v>455.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
         <v>5</v>
       </c>
-      <c r="J37" t="n">
-        <v>4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6</v>
-      </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>83.8</v>
+        <v>91.56</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE565E0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL214172</t>
+          <t>CHEMBL486665</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccnc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccnc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3019,29 +3019,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>329.32</v>
+        <v>470.92</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" t="n">
         <v>5</v>
       </c>
-      <c r="L38" t="n">
-        <v>4</v>
-      </c>
       <c r="M38" t="n">
-        <v>95.08</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE563B0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL438566</t>
+          <t>CHEMBL483786</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,7 +3091,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>518.01</v>
+        <v>533.37</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
@@ -3100,16 +3100,16 @@
         <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
         <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>83.8</v>
+        <v>106.22</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CAC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56340&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL486665</t>
+          <t>CHEMBL529669</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>470.92</v>
+        <v>475.93</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
         <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>89.15000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55FC0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55EE0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C57345561</t>
+          <t>C52607219</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[NH3+]C1CCN(Cc2nnn(-c3ccc(Cl)c(C(F)(F)F)c3)c2-c2ccncc2)CC1</t>
+          <t>CC[C@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc2c(c1)CCN2[C@@H](c1ccccc1)c1nnn[nH]1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[NH3+]C1CCN(Cc2nnn(-c3ccc(Cl)c(C(F)(F)F)c3)c2-c2ccncc2)CC1</t>
+          <t>CC[C@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc2c(c1)CCN2[C@@H](c1ccccc1)c1nnn[nH]1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>437.88</v>
+        <v>467.6</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>74.48</v>
+        <v>87.11</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A10E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE268F0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C52607219</t>
+          <t>C43743318</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CC[C@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc2c(c1)CCN2[C@@H](c1ccccc1)c1nnn[nH]1</t>
+          <t>CC(=O)O[C@@]1(C(C)=O)CC[C@@H]2[C@H]3C=C(C)C4=C[C@H](OC(=O)CC[NH+]5CCCCC5)CC[C@@]4(C)[C@H]3CC[C@]21C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CC[C@H]1Nc2c(C)cc(C)[nH+]c2N1Cc1ccc2c(c1)CCN2[C@@H](c1ccccc1)c1nnn[nH]1</t>
+          <t>CC(=O)O[C@@]1(C(C)=O)CC[C@@H]2[C@H]3C=C(C)C4=C[C@H](OC(=O)CC[NH+]5CCCCC5)CC[C@@]4(C)[C@H]3CC[C@]21C</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,25 +3363,25 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>467.6</v>
+        <v>526.74</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
         <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>87.11</v>
+        <v>74.11</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98BA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26810&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C43743318</t>
+          <t>C20504575</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CC(=O)O[C@@]1(C(C)=O)CC[C@@H]2[C@H]3C=C(C)C4=C[C@H](OC(=O)CC[NH+]5CCCCC5)CC[C@@]4(C)[C@H]3CC[C@]21C</t>
+          <t>C[C@H](C(=O)N1CCSCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CC(=O)O[C@@]1(C(C)=O)CC[C@@H]2[C@H]3C=C(C)C4=C[C@H](OC(=O)CC[NH+]5CCCCC5)CC[C@@]4(C)[C@H]3CC[C@]21C</t>
+          <t>C[C@H](C(=O)N1CCSCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>526.74</v>
+        <v>495.74</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>74.11</v>
+        <v>90.2</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE267A0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C20504575</t>
+          <t>C20687752</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)N1CCSCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>C[C@@H](C(=O)NC(=O)NC12CC3CC(CC(C3)C1)C2)[NH+](C)Cc1ccc(OC(F)F)cc1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)N1CCSCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>C[C@@H](C(=O)NC(=O)NC12CC3CC(CC(C3)C1)C2)[NH+](C)Cc1ccc(OC(F)F)cc1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>495.74</v>
+        <v>436.52</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>90.2</v>
+        <v>71.87</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26570&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C20687752</t>
+          <t>C12621446</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C[C@@H](C(=O)NC(=O)NC12CC3CC(CC(C3)C1)C2)[NH+](C)Cc1ccc(OC(F)F)cc1</t>
+          <t>Nc1nc(N)nc(CSCc2cccc3cccnc23)n1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C[C@@H](C(=O)NC(=O)NC12CC3CC(CC(C3)C1)C2)[NH+](C)Cc1ccc(OC(F)F)cc1</t>
+          <t>Nc1nc(N)nc(CSCc2cccc3cccnc23)n1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,25 +3567,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>436.52</v>
+        <v>298.38</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>71.87</v>
+        <v>103.6</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26650&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C12621446</t>
+          <t>C40372503</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nc1nc(N)nc(CSCc2cccc3cccnc23)n1</t>
+          <t>Cc1ncsc1C(=O)NC1(/C(N)=N/O)CCC(C)CC1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nc1nc(N)nc(CSCc2cccc3cccnc23)n1</t>
+          <t>Cc1ncsc1C(=O)NC1(/C(N)=N/O)CCC(C)CC1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3635,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>298.38</v>
+        <v>296.4</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>103.6</v>
+        <v>100.6</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9898C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE27ED0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C00092501</t>
+          <t>C37835134</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H]1C[C@@](O)(C2(O)CCCCC2)ON1</t>
+          <t>NC(=O)CC1CCN(C(=O)[C@H]2CCCC[C@@H]2C(=O)[O-])CC1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H]1C[C@@](O)(C2(O)CCCCC2)ON1</t>
+          <t>NC(=O)CC1CCN(C(=O)[C@H]2CCCC[C@@H]2C(=O)[O-])CC1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,16 +3703,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>229.32</v>
+        <v>295.36</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>61.72</v>
+        <v>103.53</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE260A0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C41062467</t>
+          <t>C41991885</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c(Sc2ccc(Cl)cc2N)n1</t>
+          <t>C[C@](Sc1nncn1N)(C(=O)[O-])c1c(F)cccc1F</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c(Sc2ccc(Cl)cc2N)n1</t>
+          <t>C[C@](Sc1nncn1N)(C(=O)[O-])c1c(F)cccc1F</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3771,16 +3771,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>240.72</v>
+        <v>299.28</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
         <v>2</v>
@@ -3789,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>67.59</v>
+        <v>96.86</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9895B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE25D20&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C04081367</t>
+          <t>C00092501</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>C[C@@H]1CC[C@@H]2[C@](C)(CO)[C@@H](O)CC[C@]2(C)[C@@]12CC[C@](C)(CO)O2</t>
+          <t>CC(C)[C@@H]1C[C@@](O)(C2(O)CCCCC2)ON1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>C[C@@H]1CC[C@H]2[C@](C)(CC[C@H](O)[C@@]2(C)CO)[C@@]12CC[C@](C)(CO)O2</t>
+          <t>CC(C)[C@@H]1C[C@@](O)(C2(O)CCCCC2)ON1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>326.48</v>
+        <v>229.32</v>
       </c>
       <c r="H50" t="n">
         <v>3</v>
@@ -3851,13 +3851,13 @@
         <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>69.92</v>
+        <v>61.72</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE25D90&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C04095454</t>
+          <t>C04081367</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[H]/N=C1/SC(N)=C(C#N)[C@H](c2c(Cl)cccc2Cl)[C@@H]1C#N</t>
+          <t>C[C@@H]1CC[C@@H]2[C@](C)(CO)[C@@H](O)CC[C@]2(C)[C@@]12CC[C@](C)(CO)O2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[H]/N=C1/SC(N)=C(C#N)[C@H](c2c(Cl)cccc2Cl)[C@@H]1C#N</t>
+          <t>C[C@@H]1CC[C@H]2[C@](C)(CC[C@H](O)[C@@]2(C)CO)[C@@]12CC[C@](C)(CO)O2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>323.21</v>
+        <v>326.48</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>97.45</v>
+        <v>69.92</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26500&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C13041664</t>
+          <t>C33939840</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>O=S(=O)(/N=C1/CCCCCN1)c1cccc([N-]S(=O)(=O)c2cccs2)c1</t>
+          <t>CC(C)CCN1C(=O)[C@H]2[C@@H](C(=O)NC3CCCCC3)[C@@]3(C)C=C[C@@]2(O3)[C@@H]1C(=O)NC1CCCCC1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>O=S(=O)(/N=C1/CCCCCN1)c1cccc([N-]S(=O)(=O)c2cccs2)c1</t>
+          <t>CC(C)CCN1C(=O)[C@H]2[C@@H](C(=O)NC3CCCCC3)[C@@]3(C)C=C[C@@]2(O3)[C@@H]1C(=O)NC1CCCCC1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3975,25 +3975,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>412.54</v>
+        <v>485.67</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7</v>
+      </c>
+      <c r="K52" t="n">
         <v>5</v>
       </c>
-      <c r="J52" t="n">
-        <v>5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3</v>
-      </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>106.77</v>
+        <v>87.73999999999999</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24200&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9894D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26B90&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26B20&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C13499749</t>
+          <t>C29063180</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CCc1nc2sc3c(c2c2nnc(SCC(=O)NNC(=O)c4ccc(C)cc4)n12)CC[C@H](C)C3</t>
+          <t>CC(C)(C)c1ccc2cc(C(=O)NNC(=O)c3cc(Br)c[nH]3)[nH]c2c1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CCc1nc2sc3c(c2c2nnc(SCC(=O)NNC(=O)c4ccc(C)cc4)n12)CC[C@H](C)C3</t>
+          <t>CC(C)(C)c1ccc2cc(C(=O)NNC(=O)c3cc(Br)c[nH]3)[nH]c2c1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4179,25 +4179,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>494.65</v>
+        <v>403.28</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>101.28</v>
+        <v>89.78</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE269D0&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C39940316</t>
+          <t>C59168060</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Oc1cccc(-c2conc3sc(N4N[C@@H](C(F)(F)F)C[C@@H]4c4ccc5ccccc5c4)cn3[nH]2)c1</t>
+          <t>O=C(Nc1cccnc1)/C(=C\c1ccc2c(c1)OCO2)NC(=O)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Oc1cccc(-c2conc3sc(N4N[C@@H](C(F)(F)F)C[C@@H]4c4ccc5ccccc5c4)cn3[nH]2)c1</t>
+          <t>O=C(Nc1cccnc1)/C(=C\c1ccc2c(c1)OCO2)NC(=O)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4247,25 +4247,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>511.53</v>
+        <v>466.29</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
         <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>81.73</v>
+        <v>89.55</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4276,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26420&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C31161284</t>
+          <t>C15093087</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CC1=CC[C@H]2C(C)(C)CCC[C@@]2(C)[C@@H]1C[C@@]12O[C@@H]1[C@@H](O)C(CO)=C[C@@H]2O</t>
+          <t>CC(=O)N(c1nc(/C=C/C(=O)NNC(=O)c2cn(C)c3ccccc23)cs1)c1ccccc1F</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CC1=CC[C@H]2C(C)(C)CCC[C@@]2(C)[C@@H]1C[C@@]12O[C@@H]1[C@@H](O)C(CO)=C[C@@H]2O</t>
+          <t>CC(=O)N(c1nc(/C=C/C(=O)NNC(=O)c2cn(C)c3ccccc23)cs1)c1ccccc1F</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4315,25 +4315,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>362.51</v>
+        <v>477.52</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
         <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K57" t="n">
         <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>73.22</v>
+        <v>96.33</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4344,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE25700&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4356,7 +4356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C61818972</t>
+          <t>C31161284</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cc1cc(N)c(S(=O)(=O)N2CCC(C)(C)CC2)cc1C</t>
+          <t>CC1=CC[C@H]2C(C)(C)CCC[C@@]2(C)[C@@H]1C[C@@]12O[C@@H]1[C@@H](O)C(CO)=C[C@@H]2O</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cc1cc(N)c(S(=O)(=O)N2CCC(C)(C)CC2)cc1C</t>
+          <t>CC1=CC[C@H]2C(C)(C)CCC[C@@]2(C)[C@@H]1C[C@@]12O[C@@H]1[C@@H](O)C(CO)=C[C@@H]2O</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>296.44</v>
+        <v>362.51</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>63.4</v>
+        <v>73.22</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE27BC0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4424,7 +4424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C39930424</t>
+          <t>C61818972</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Oc1c(Cl)c(Cl)c2c(c1Cl)C[C@H](Nc1nccs1)O2</t>
+          <t>Cc1cc(N)c(S(=O)(=O)N2CCC(C)(C)CC2)cc1C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Oc1c(Cl)c(Cl)c2c(c1Cl)C[C@H](Nc1nccs1)O2</t>
+          <t>Cc1cc(N)c(S(=O)(=O)N2CCC(C)(C)CC2)cc1C</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4451,25 +4451,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>337.62</v>
+        <v>296.44</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>54.38</v>
+        <v>63.4</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4480,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE262D0&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C51329889</t>
+          <t>C39930424</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4500,12 +4500,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H]2NC(=S)N[C@H]3C(=C4SCCS4)CCC[C@@H]23)cc1</t>
+          <t>Oc1c(Cl)c(Cl)c2c(c1Cl)C[C@H](Nc1nccs1)O2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H]2NC(=S)N[C@H]3C(=C4SCCS4)CCC[C@@H]23)cc1</t>
+          <t>Oc1c(Cl)c(Cl)c2c(c1Cl)C[C@H](Nc1nccs1)O2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4519,25 +4519,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>378.59</v>
+        <v>337.62</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
         <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>33.29</v>
+        <v>54.38</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4548,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE266C0&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4560,7 +4560,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C61414646</t>
+          <t>C05638902</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>N[C@@H](c1ccc2nccnc2c1)c1ccc(Br)s1</t>
+          <t>O=C(N[C@]12CCC[C@@H]1[C@H]1CC[C@@H]2C1)N[C@@]12CCC[C@@H]1[C@H]1CC[C@@H]2C1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>N[C@@H](c1ccc2nccnc2c1)c1ccc(Br)s1</t>
+          <t>O=C(N[C@]12CCC[C@@H]1[C@H]1CC[C@@H]2C1)N[C@@]12CCC[C@@H]1[C@H]1CC[C@@H]2C1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4587,25 +4587,25 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>320.21</v>
+        <v>328.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>51.8</v>
+        <v>41.13</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE263B0&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C35577776</t>
+          <t>C51329889</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4636,12 +4636,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nc1c2c(-c3ccccc3F)nc(NC3CCCC3)nc2nn1-c1cccc(F)c1</t>
+          <t>COc1ccc([C@H]2NC(=S)N[C@H]3C(=C4SCCS4)CCC[C@@H]23)cc1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Nc1c2c(-c3ccccc3F)nc(NC3CCCC3)nc2nn1-c1cccc(F)c1</t>
+          <t>COc1ccc([C@H]2NC(=S)N[C@H]3C(=C4SCCS4)CCC[C@@H]23)cc1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4655,25 +4655,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>406.44</v>
+        <v>378.59</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>81.65000000000001</v>
+        <v>33.29</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4684,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26340&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C44491443</t>
+          <t>C61414646</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[C@H]2[C@@H]3CCC4=CC(=O)C=C[C@@]4(C)[C@]3(Cl)[C@@H](O)C[C@@]2(C)[C@@]1(OC(=O)c1ccco1)C(=O)CCl</t>
+          <t>N[C@@H](c1ccc2nccnc2c1)c1ccc(Br)s1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[C@H]2[C@@H]3CCC4=CC(=O)C=C[C@@]4(C)[C@]3(Cl)[C@@H](O)C[C@@]2(C)[C@@]1(OC(=O)c1ccco1)C(=O)CCl</t>
+          <t>N[C@@H](c1ccc2nccnc2c1)c1ccc(Br)s1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4723,25 +4723,25 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>521.4400000000001</v>
+        <v>320.21</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>93.81</v>
+        <v>51.8</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4752,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE265E0&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4820,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26260&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C20709209</t>
+          <t>C13657884</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(O)c([C@H]2Nc3ccc(S(=O)(=O)N4CCc5ccccc54)cc3[C@@H]3C=CC[C@@H]23)c1</t>
+          <t>Oc1c(Br)cc(/C=N/NC(=S)NC[C@H]2CCCO2)cc1Br</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(O)c([C@H]2Nc3ccc(S(=O)(=O)N4CCc5ccccc54)cc3[C@@H]3C=CC[C@@H]23)c1</t>
+          <t>Oc1c(Br)cc(/C=N/NC(=S)NC[C@H]2CCCO2)cc1Br</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>489.55</v>
+        <v>437.16</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
         <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>112.78</v>
+        <v>65.88</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4888,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26490&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C13657884</t>
+          <t>C03357084</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Oc1c(Br)cc(/C=N/NC(=S)NC[C@H]2CCCO2)cc1Br</t>
+          <t>Cc1ccc(C(=O)Nc2ccc(S(=O)(=O)Nc3ccc(I)cc3)cc2)o1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Oc1c(Br)cc(/C=N/NC(=S)NC[C@H]2CCCO2)cc1Br</t>
+          <t>Cc1ccc(C(=O)Nc2ccc(S(=O)(=O)Nc3ccc(I)cc3)cc2)o1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4927,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>437.16</v>
+        <v>482.3</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
         <v>5</v>
       </c>
-      <c r="J66" t="n">
-        <v>4</v>
-      </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>65.88</v>
+        <v>88.41</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4956,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE261F0&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C20731083</t>
+          <t>C25611773</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>O=C([O-])[C@H](c1c[nH]c2ccc(Br)cc12)[NH+]1CCC(c2noc3cc(F)ccc23)CC1</t>
+          <t>NC(=O)c1ccc(N2CCCCC2)c(NC(=O)c2csc(-c3ccc(F)cc3)n2)c1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>O=C([O-])[C@H](c1c[nH]c2ccc(Br)cc12)[NH+]1CCC(c2noc3cc(F)ccc23)CC1</t>
+          <t>NC(=O)c1ccc(N2CCCCC2)c(NC(=O)c2csc(-c3ccc(F)cc3)n2)c1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>472.31</v>
+        <v>424.5</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -5004,16 +5004,16 @@
         <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>86.39</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5024,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26A40&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5036,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C59310293</t>
+          <t>C50360496</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5044,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)CSc1n[nH]c(N/N=C/c2ccc3ccc4cccc5ccc2c3c45)n1)c1ccccc1</t>
+          <t>O=c1[nH]c2cc(Br)c(NCc3cc(Br)c(Br)o3)cc2[nH]1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)CSc1n[nH]c(N/N=C/c2ccc3ccc4cccc5ccc2c3c45)n1)c1ccccc1</t>
+          <t>O=c1[nH]c2cc(Br)c(NCc3cc(Br)c(Br)o3)cc2[nH]1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5063,25 +5063,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>504.62</v>
+        <v>465.93</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>95.06</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5092,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26180&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5160,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE25CB0&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5228,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26DC0&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5296,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26AB0&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5364,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26110&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5432,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98BA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE26030&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5500,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE25FC0&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5512,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C08965442</t>
+          <t>C08856105</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cc1nc(SCC2=C(C(=O)OC(C)C)[C@H](c3cccs3)C(C#N)=C(N)O2)c(C#N)c(C)c1C</t>
+          <t>COCc1cc(C)nc2c1C1=NC(c3ccccc3)(c3ccccc3)c3ccccc3N1C(N)=CS2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cc1nc(SCC2=C(C(=O)OC(C)C)[C@H](c3cccs3)C(C#N)=C(N)O2)c(C#N)c(C)c1C</t>
+          <t>COCc1cc(C)nc2c1C1=NC(c3ccccc3)(c3ccccc3)c3ccccc3N1C(N)=CS2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5539,25 +5539,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>480.62</v>
+        <v>490.63</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" t="n">
         <v>6</v>
       </c>
-      <c r="K75" t="n">
-        <v>3</v>
-      </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>122.02</v>
+        <v>63.74</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5568,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98BB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE25F50&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5580,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C08856105</t>
+          <t>C22822589</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>COCc1cc(C)nc2c1C1=NC(c3ccccc3)(c3ccccc3)c3ccccc3N1C(N)=CS2</t>
+          <t>Cc1cccc([C@@H]2CC(=O)C3=C(C2)NC(Nc2nc4ccccc4s2)=N[C@@H]3c2cc(F)cc(F)c2)c1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>COCc1cc(C)nc2c1C1=NC(c3ccccc3)(c3ccccc3)c3ccccc3N1C(N)=CS2</t>
+          <t>Cc1cccc([C@@H]2CC(=O)C3=C(C2)NC(Nc2nc4ccccc4s2)=N[C@@H]3c2cc(F)cc(F)c2)c1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5607,16 +5607,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>490.63</v>
+        <v>500.57</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
         <v>6</v>
@@ -5625,7 +5625,7 @@
         <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>63.74</v>
+        <v>66.38</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5636,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE25EE0&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5648,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C39560807</t>
+          <t>C13638161</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COC(=O)[C@@H]1CC2=C3CC=CC=C3N=C2[C@H]2C[C@@H]([NH+]3CC[C@@H](O)C3)C[C@@H](c3ccc(SC)cc3)N21</t>
+          <t>CSc1nc2nc(C(C)C)c(-c3ccc(Br)cc3)c(N)n2n1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>COC(=O)[C@@H]1CC2=C3CC=CC=C3N=C2[C@H]2C[C@@H]([NH+]3CC[C@@H](O)C3)C[C@@H](c3ccc(SC)cc3)N12</t>
+          <t>CSc1nc2nc(C(C)C)c(-c3ccc(Br)cc3)c(N)n2n1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5675,25 +5675,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>492.67</v>
+        <v>378.3</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>66.56999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5704,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE25E70&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5772,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE25E00&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5840,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE42960&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE40820&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5976,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE40970&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -5988,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C42174294</t>
+          <t>C37605745</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CN(C(=O)[C@H]1C[C@H]2CC[C@@H]1C2)c1ccncc1N</t>
+          <t>CC(C)c1noc(-c2cc(N)c(F)cc2F)n1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CN(C(=O)[C@H]1C[C@H]2CC[C@@H]1C2)c1ccncc1N</t>
+          <t>CC(C)c1noc(-c2cc(N)c(F)cc2F)n1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6015,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>245.33</v>
+        <v>239.22</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
         <v>2</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>59.22</v>
+        <v>64.94</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6044,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE426C0&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6056,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C43424803</t>
+          <t>C42174294</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6064,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>N#Cc1cc(N)ccc1N1CCO[C@@H]2CCCC[C@@H]21</t>
+          <t>CN(C(=O)[C@H]1C[C@H]2CC[C@@H]1C2)c1ccncc1N</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>N#Cc1cc(N)ccc1N1CCO[C@@H]2CCCC[C@@H]21</t>
+          <t>CN(C(=O)[C@H]1C[C@H]2CC[C@@H]1C2)c1ccncc1N</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6083,16 +6083,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>257.34</v>
+        <v>245.33</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
         <v>3</v>
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>62.28</v>
+        <v>59.22</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6112,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE427A0&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C44790296</t>
+          <t>C43424803</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6132,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC/C=C/[C@@H]2C[C@H](O)C[C@@H]2[C@@H](O)/C=C/C(=O)O1</t>
+          <t>N#Cc1cc(N)ccc1N1CCO[C@@H]2CCCC[C@@H]21</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC/C=C/[C@@H]2C[C@H](O)C[C@@H]2[C@@H](O)/C=C/C(=O)O1</t>
+          <t>N#Cc1cc(N)ccc1N1CCO[C@@H]2CCCC[C@@H]21</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6151,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>280.36</v>
+        <v>257.34</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>66.76000000000001</v>
+        <v>62.28</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6180,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE41380&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C34107785</t>
+          <t>C44790296</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6200,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCN(C2=NC(=O)/C(=C/c3ccc(-c4ccc(S(N)(=O)=O)cc4)o3)S2)C1</t>
+          <t>C[C@@H]1CCC/C=C/[C@@H]2C[C@H](O)C[C@@H]2[C@@H](O)/C=C/C(=O)O1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCN(C2=NC(=O)/C(=C/c3ccc(-c4ccc(S(N)(=O)=O)cc4)o3)S2)C1</t>
+          <t>C[C@@H]1CCC/C=C/[C@@H]2C[C@H](O)C[C@@H]2[C@@H](O)/C=C/C(=O)O1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6215,29 +6215,29 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>431.54</v>
+        <v>280.36</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>105.97</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6248,7 +6248,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE414D0&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6260,7 +6260,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C14885806</t>
+          <t>C62329337</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>OC[C@@H]1CCCN(c2nc3cc4c(cc3cc2C[NH2+]CCC2=CCCCC2)OCO4)C1</t>
+          <t>Cc1ncc(-c2nc3c(s2)CCCCC3)c(N)n1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>OC[C@@H]1CCCN(c2nc3cc4c(cc3cc2C[NH2+]CCC2=CCCCC2)OCO4)C1</t>
+          <t>Cc1ncc(-c2nc3c(s2)CCCCC3)c(N)n1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6283,29 +6283,29 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>424.57</v>
+        <v>260.37</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
         <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>71.43000000000001</v>
+        <v>64.69</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6316,7 +6316,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE41540&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6328,7 +6328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C02201806</t>
+          <t>C29037886</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6336,12 +6336,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>N#C/C(=C\c1c(N2CCN(c3ccccc3)CC2)nc2ccccn2c1=O)C(N)=O</t>
+          <t>CC(C)c1cc(C2=CCN(C(=O)[C@H]3[NH2+]CC4(CC4)C[C@@H]3C(=O)NO)CC2)ccc1C#N</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>N#C/C(=C\c1c(N2CCN(c3ccccc3)CC2)nc2ccccn2c1=O)C(N)=O</t>
+          <t>CC(C)c1cc(C2=CCN(C(=O)[C@H]3[NH2+]CC4(CC4)C[C@@H]3C(=O)NO)CC2)ccc1C#N</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>400.44</v>
+        <v>423.54</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
         <v>4</v>
@@ -6370,10 +6370,10 @@
         <v>4</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>107.73</v>
+        <v>110.04</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6384,7 +6384,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE41770&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C50558826</t>
+          <t>C34107785</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>O=C(NCC(=O)N1CCC[C@@H]1c1nnc2n1CCCCC2)NCC1CCCC1</t>
+          <t>C[C@@H]1CCCN(C2=NC(=O)/C(=C/c3ccc(-c4ccc(S(N)(=O)=O)cc4)o3)S2)C1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>O=C(NCC(=O)N1CCC[C@@H]1c1nnc2n1CCCCC2)NCC1CCCC1</t>
+          <t>C[C@@H]1CCCN(C2=NC(=O)/C(=C/c3ccc(-c4ccc(S(N)(=O)=O)cc4)o3)S2)C1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6423,25 +6423,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>388.52</v>
+        <v>431.54</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
         <v>4</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
-        <v>92.15000000000001</v>
+        <v>105.97</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6452,7 +6452,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE41850&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C02411007</t>
+          <t>C14885806</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6472,12 +6472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Nc1c(S(=O)(=O)c2ccc(Cl)cc2)c2nc3ccccc3nc2n1/N=C/c1cccs1</t>
+          <t>OC[C@@H]1CCCN(c2nc3cc4c(cc3cc2C[NH2+]CCC2=CCCCC2)OCO4)C1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Nc1c(S(=O)(=O)c2ccc(Cl)cc2)c2nc3ccccc3nc2n1/N=C/c1cccs1</t>
+          <t>OC[C@@H]1CCCN(c2nc3cc4c(cc3cc2C[NH2+]CCC2=CCCCC2)OCO4)C1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6491,25 +6491,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>467.96</v>
+        <v>424.57</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
         <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K89" t="n">
         <v>5</v>
       </c>
       <c r="L89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>103.23</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6520,7 +6520,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE41B60&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6532,7 +6532,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C16385782</t>
+          <t>C23191775</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>O=C(NC(=S)Nc1ccc(Cl)cc1C(=O)[O-])c1ccc([N+](=O)[O-])cc1Cl</t>
+          <t>Cc1cc(C)n(-c2ccc(N3CCC([NH2+]Cc4cc(C5CC5)[nH]n4)CC3)cc2)n1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>O=C(NC(=S)Nc1ccc(Cl)cc1C(=O)[O-])c1ccc([N+](=O)[O-])cc1Cl</t>
+          <t>Cc1cc(C)n(-c2ccc(N3CCC([NH2+]Cc4cc(C5CC5)[nH]n4)CC3)cc2)n1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6559,25 +6559,25 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>413.22</v>
+        <v>391.54</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M90" t="n">
-        <v>124.4</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6588,7 +6588,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE41690&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6600,7 +6600,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C16034506</t>
+          <t>C20214186</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6608,12 +6608,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>COc1cc(OC)c([C@@H]2[C@@H]3C[C@@H](C(C)(C)C)CC=C3C(C#N)=C(N)C2(C#N)C#N)cc1OC</t>
+          <t>CCOC(=O)C1=C(CN2CCN(c3cc(C)ccc3C)CC2)NC(=O)N[C@@H]1c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>COc1cc(OC)c([C@@H]2[C@@H]3C[C@@H](C(C)(C)C)CC=C3C(C#N)=C(N)C2(C#N)C#N)cc1OC</t>
+          <t>CCOC(=O)C1=C(CN2CCN(c3cc(C)ccc3C)CC2)NC(=O)N[C@@H]1c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6627,25 +6627,25 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>446.55</v>
+        <v>483.01</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M91" t="n">
-        <v>125.08</v>
+        <v>73.91</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6656,7 +6656,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE425E0&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CHEMBL4528675</t>
+          <t>C40984335</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
+          <t>COc1ccc(-c2nc(C[NH+]3CCC(C(=O)NCc4cccc(C(F)(F)F)c4)CC3)c(C)o2)cc1OC</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
+          <t>COc1ccc(-c2nc(C[NH+]3CCC(C(=O)NCc4cccc(C(F)(F)F)c4)CC3)c(C)o2)cc1OC</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6691,66 +6691,40 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>535.55</v>
+        <v>518.5599999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92" t="n">
-        <v>107.06</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>CHEMBL4366639</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>Inhibition of human WEE1 at 100 nM using MBP as substrate by [gamma-33P]-ATP assay</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>78.03</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE42A40&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6762,7 +6736,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CHEMBL2402081</t>
+          <t>C02201806</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6770,12 +6744,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
+          <t>N#C/C(=C\c1c(N2CCN(c3ccccc3)CC2)nc2ccccn2c1=O)C(N)=O</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
+          <t>N#C/C(=C\c1c(N2CCN(c3ccccc3)CC2)nc2ccccn2c1=O)C(N)=O</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6785,14 +6759,14 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>432.46</v>
+        <v>400.44</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>6</v>
@@ -6801,50 +6775,24 @@
         <v>4</v>
       </c>
       <c r="K93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>84.97</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q93" t="n">
-        <v>11</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>CHEMBL2405481</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>107.73</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE42110&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6856,7 +6804,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHEMBL166031</t>
+          <t>C50558826</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6864,12 +6812,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
+          <t>O=C(NCC(=O)N1CCC[C@@H]1c1nnc2n1CCCCC2)NCC1CCCC1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
+          <t>O=C(NCC(=O)N1CCC[C@@H]1c1nnc2n1CCCCC2)NCC1CCCC1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6879,66 +6827,40 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>352.39</v>
+        <v>388.52</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
       </c>
       <c r="I94" t="n">
+        <v>4</v>
+      </c>
+      <c r="J94" t="n">
         <v>5</v>
       </c>
-      <c r="J94" t="n">
-        <v>4</v>
-      </c>
       <c r="K94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>89.28</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q94" t="n">
-        <v>-4.91</v>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>CHEMBL3631623</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>92.15000000000001</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE40040&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6950,7 +6872,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHEMBL4459587</t>
+          <t>C54982236</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6958,12 +6880,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
+          <t>Nc1nc(Cl)cc(NC2[C@@H]3CCC[C@H]2C[NH+](C2CC2)C3)n1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
+          <t>Nc1nc(Cl)cc(NC2[C@H]3CCC[C@@H]2C[NH+](C2CC2)C3)n1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6973,66 +6895,40 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>323.42</v>
+        <v>308.84</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>46.17</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>-4</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>CHEMBL4378983</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 10 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate measured after 40 mins in presence of [gamm33P]ATP by scintillation counting method relative to control</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>68.27</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98B1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE40120&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -7044,7 +6940,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CHEMBL2170414</t>
+          <t>C02411007</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7052,12 +6948,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
+          <t>Nc1c(S(=O)(=O)c2ccc(Cl)cc2)c2nc3ccccc3nc2n1/N=C/c1cccs1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
+          <t>Nc1c(S(=O)(=O)c2ccc(Cl)cc2)c2nc3ccccc3nc2n1/N=C/c1cccs1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -7067,66 +6963,40 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>357.78</v>
+        <v>467.96</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>5</v>
       </c>
       <c r="J96" t="n">
+        <v>4</v>
+      </c>
+      <c r="K96" t="n">
         <v>5</v>
       </c>
-      <c r="K96" t="n">
-        <v>3</v>
-      </c>
       <c r="L96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M96" t="n">
-        <v>92.93000000000001</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>16</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>CHEMBL2174406</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 at 1 uM by 33P kinase hotspot assay</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>103.23</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE409E0&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7138,7 +7008,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CHEMBL3628628</t>
+          <t>C16385782</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7146,12 +7016,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
+          <t>O=C(NC(=S)Nc1ccc(Cl)cc1C(=O)[O-])c1ccc([N+](=O)[O-])cc1Cl</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
+          <t>O=C(NC(=S)Nc1ccc(Cl)cc1C(=O)[O-])c1ccc([N+](=O)[O-])cc1Cl</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7161,66 +7031,40 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>453.93</v>
+        <v>413.22</v>
       </c>
       <c r="H97" t="n">
         <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J97" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>94.06</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>-30.02</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>CHEMBL3631623</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>124.4</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98AEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE40350&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7232,7 +7076,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CHEMBL4084955</t>
+          <t>C16034506</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7240,12 +7084,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
+          <t>COc1cc(OC)c([C@@H]2[C@@H]3C[C@@H](C(C)(C)C)CC=C3C(C#N)=C(N)C2(C#N)C#N)cc1OC</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
+          <t>COc1cc(OC)c([C@@H]2[C@@H]3C[C@@H](C(C)(C)C)CC=C3C(C#N)=C(N)C2(C#N)C#N)cc1OC</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7255,66 +7099,40 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>195.22</v>
+        <v>446.55</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K98" t="n">
         <v>3</v>
       </c>
       <c r="L98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>CHEMBL4034515</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 Lysine 2 labelling site (unknown origin) at 10 uM</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>125.08</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE40430&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7326,7 +7144,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHEMBL3746293</t>
+          <t>C13460367</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7334,12 +7152,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
+          <t>COc1cc(/C=C/C(=O)[O-])cc(S(=O)(=O)/N=c2/[nH]c(-c3ccc4c(c3)CCO4)cs2)c1OC</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
+          <t>COc1cc(/C=C/C(=O)[O-])cc(S(=O)(=O)/N=c2/[nH]c(-c3ccc4c(c3)CCO4)cs2)c1OC</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7349,66 +7167,40 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>529.6</v>
+        <v>487.54</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M99" t="n">
-        <v>107.94</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>CHEMBL3751119</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 1 uM</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>130.11</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE404A0&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7420,7 +7212,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CHEMBL5081774</t>
+          <t>C40709637</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7428,12 +7220,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
+          <t>Nc1c(Nc2ccc(Br)cc2F)ncnc1N(Cc1ccccc1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
+          <t>Nc1c(Nc2ccc(Br)cc2F)ncnc1N(Cc1ccccc1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7443,66 +7235,40 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>370.42</v>
+        <v>478.37</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
         <v>5</v>
       </c>
       <c r="J100" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L100" t="n">
         <v>4</v>
       </c>
       <c r="M100" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>10</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>CHEMBL5059363</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>Wee1(h) Kinase panel</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>67.06999999999999</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD98A420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE405F0&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7514,7 +7280,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CHEMBL3815093</t>
+          <t>C16573745</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7522,12 +7288,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
+          <t>CC[C@H](C)[C@@H](NC(=O)Nc1ccc(C)cc1C)C(=O)Nc1nnc(-c2cccc(Br)c2)s1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
+          <t>CC[C@H](C)[C@@H](NC(=O)Nc1ccc(C)cc1C)C(=O)Nc1nnc(-c2cccc(Br)c2)s1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7537,17 +7303,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>417.49</v>
+        <v>516.47</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
         <v>7</v>
@@ -7559,44 +7325,18 @@
         <v>3</v>
       </c>
       <c r="M101" t="n">
-        <v>105.68</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>0</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>CHEMBL3816877</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>Inhibition of human WEE1 at 1 uM using MBP substrate</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>96.01000000000001</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE40660&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7608,7 +7348,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C37605745</t>
+          <t>C63530470</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7616,12 +7356,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CC(C)c1noc(-c2cc(N)c(F)cc2F)n1</t>
+          <t>C[C@@H](NC(=O)[C@@H]1[NH+]=c2ccccc2=C1Sc1ccc(Cl)cc1)c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CC(C)c1noc(-c2cc(N)c(F)cc2F)n1</t>
+          <t>C[C@@H](NC(=O)[C@@H]1[NH+]=c2ccccc2=C1Sc1ccc(Cl)cc1)c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7631,29 +7371,29 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>239.22</v>
+        <v>465.98</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
         <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M102" t="n">
-        <v>64.94</v>
+        <v>61.53</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7664,7 +7404,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE40BA0&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
